--- a/service-system/src/main/resources/static/摩擦系数-3车道.xlsx
+++ b/service-system/src/main/resources/static/摩擦系数-3车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B2DDDF-23F8-4633-B6D0-1F811F11FD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCB9206-EAD7-434E-89A8-A9A26DD63E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="左幅-路面" sheetId="468" r:id="rId1"/>
@@ -1337,7 +1337,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Q1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2039,1518 +2039,6 @@
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
       <c r="L44" s="26"/>
-    </row>
-  </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:L44"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E39:F42"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-  </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.86614173228346458" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:Q44"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Q1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" style="10" customWidth="1"/>
-    <col min="2" max="4" width="5.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="10" customWidth="1"/>
-    <col min="6" max="8" width="5.625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="10" customWidth="1"/>
-    <col min="10" max="12" width="5.625" style="10" customWidth="1"/>
-    <col min="13" max="15" width="9" style="10"/>
-    <col min="16" max="16" width="14.25" style="10" customWidth="1"/>
-    <col min="17" max="17" width="16.375" style="10" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="49"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="12"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="35"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="43"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="12"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="35"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="39"/>
-    </row>
-    <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="12"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="35"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="43"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="12"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="35"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="26"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="12"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="26"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="12"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="26"/>
-    </row>
-  </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:L44"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E39:F42"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-  </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.86614173228346458" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:Q44"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Q1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="5.625" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="8" width="5.625" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="12" width="5.625" customWidth="1"/>
-    <col min="16" max="16" width="17.125" customWidth="1"/>
-    <col min="17" max="17" width="15.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="62"/>
-      <c r="B5" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="60"/>
-      <c r="L5" s="61"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="58"/>
-      <c r="G38" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="83"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="64"/>
-      <c r="G39" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="70"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="77"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="70"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="74"/>
-    </row>
-    <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="15"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="70"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="77"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="15"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="70"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="61"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="15"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="61"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -3592,50 +2080,51 @@
   <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:R1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="5.625" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="8" width="5.625" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="12" width="5.625" customWidth="1"/>
-    <col min="16" max="16" width="14.75" customWidth="1"/>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="10" customWidth="1"/>
+    <col min="2" max="4" width="5.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="10" customWidth="1"/>
+    <col min="6" max="8" width="5.625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="10" customWidth="1"/>
+    <col min="10" max="12" width="5.625" style="10" customWidth="1"/>
+    <col min="13" max="15" width="9" style="10"/>
+    <col min="16" max="16" width="14.25" style="10" customWidth="1"/>
+    <col min="17" max="17" width="16.375" style="10" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
@@ -3643,669 +2132,669 @@
       <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="19" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="18" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="62"/>
-      <c r="B5" s="59" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="59" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="59" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="60"/>
-      <c r="L5" s="61"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="27"/>
+      <c r="J6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="34" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="36" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="57" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="58"/>
-      <c r="G38" s="80" t="s">
+      <c r="F38" s="23"/>
+      <c r="G38" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="83"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="49"/>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="63" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="64"/>
-      <c r="G39" s="69" t="s">
+      <c r="F39" s="29"/>
+      <c r="G39" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="70"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="77"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="43"/>
     </row>
     <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="69" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="70"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="74"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="39"/>
     </row>
     <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="15"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="69" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="70"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="77"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="43"/>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="15"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="69" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="70"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="61"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="15"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="57" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="61"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
     </row>
     <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="57" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="61"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -4347,21 +2836,20 @@
   <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:R1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4372,13 +2860,13 @@
     <col min="6" max="8" width="5.625" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
     <col min="10" max="12" width="5.625" customWidth="1"/>
-    <col min="16" max="16" width="13.75" customWidth="1"/>
-    <col min="17" max="17" width="13.25" customWidth="1"/>
+    <col min="16" max="16" width="17.125" customWidth="1"/>
+    <col min="17" max="17" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="84"/>
       <c r="C1" s="84"/>
@@ -5102,20 +3590,19 @@
   <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -5127,13 +3614,13 @@
     <col min="6" max="8" width="5.625" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
     <col min="10" max="12" width="5.625" customWidth="1"/>
-    <col min="16" max="16" width="13.25" customWidth="1"/>
-    <col min="17" max="17" width="12.625" customWidth="1"/>
+    <col min="16" max="16" width="14.75" customWidth="1"/>
+    <col min="17" max="17" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="84"/>
       <c r="C1" s="84"/>
@@ -5857,8 +4344,1515 @@
   <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:Q44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="5.625" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="8" width="5.625" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="12" width="5.625" customWidth="1"/>
+    <col min="16" max="16" width="13.75" customWidth="1"/>
+    <col min="17" max="17" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="60"/>
+      <c r="L4" s="61"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="62"/>
+      <c r="B5" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="62"/>
+      <c r="B6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="62"/>
+      <c r="J6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="58"/>
+      <c r="G38" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="83"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="64"/>
+      <c r="G39" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="70"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="77"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="15"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="70"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="74"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="15"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="70"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="77"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="15"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="70"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="61"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="15"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="61"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="15"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="58"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:L44"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="E39:F42"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:Q44"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="5.625" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="8" width="5.625" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="12" width="5.625" customWidth="1"/>
+    <col min="16" max="16" width="13.25" customWidth="1"/>
+    <col min="17" max="17" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="60"/>
+      <c r="L4" s="61"/>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="62"/>
+      <c r="B5" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="62"/>
+      <c r="B6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="62"/>
+      <c r="J6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="58"/>
+      <c r="G38" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="83"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="64"/>
+      <c r="G39" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="70"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="77"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="15"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="70"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="74"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="15"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="70"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="77"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="15"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="70"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="61"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="15"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="61"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="15"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="58"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:L44"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="E39:F42"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
